--- a/natmiOut/OldD2/LR-pairs_lrc2p/Muc2-Agr2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Muc2-Agr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Muc2</t>
   </si>
   <si>
     <t>Agr2</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>5.38253541575227</v>
+        <v>0.2122415</v>
       </c>
       <c r="H2">
-        <v>5.38253541575227</v>
+        <v>0.424483</v>
       </c>
       <c r="I2">
-        <v>0.898801258486994</v>
+        <v>0.02371249848986207</v>
       </c>
       <c r="J2">
-        <v>0.898801258486994</v>
+        <v>0.01595965328304344</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.24622723051275</v>
+        <v>4.3683555</v>
       </c>
       <c r="N2">
-        <v>4.24622723051275</v>
+        <v>8.736711</v>
       </c>
       <c r="O2">
-        <v>0.5438923972141274</v>
+        <v>0.5438795363364365</v>
       </c>
       <c r="P2">
-        <v>0.5438923972141274</v>
+        <v>0.4428769226776301</v>
       </c>
       <c r="Q2">
-        <v>22.85546845156655</v>
+        <v>0.9271463238532499</v>
       </c>
       <c r="R2">
-        <v>22.85546845156655</v>
+        <v>3.708585295413</v>
       </c>
       <c r="S2">
-        <v>0.4888511710975658</v>
+        <v>0.01289674268404463</v>
       </c>
       <c r="T2">
-        <v>0.4888511710975658</v>
+        <v>0.007068162132996213</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>5.38253541575227</v>
+        <v>0.2122415</v>
       </c>
       <c r="H3">
-        <v>5.38253541575227</v>
+        <v>0.424483</v>
       </c>
       <c r="I3">
-        <v>0.898801258486994</v>
+        <v>0.02371249848986207</v>
       </c>
       <c r="J3">
-        <v>0.898801258486994</v>
+        <v>0.01595965328304344</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.626333986747722</v>
+        <v>0.7114236666666667</v>
       </c>
       <c r="N3">
-        <v>0.626333986747722</v>
+        <v>2.134271</v>
       </c>
       <c r="O3">
-        <v>0.08022611014808176</v>
+        <v>0.08857538585525702</v>
       </c>
       <c r="P3">
-        <v>0.08022611014808176</v>
+        <v>0.108189383011537</v>
       </c>
       <c r="Q3">
-        <v>3.371264865758926</v>
+        <v>0.1509936261488333</v>
       </c>
       <c r="R3">
-        <v>3.371264865758926</v>
+        <v>0.905961756893</v>
       </c>
       <c r="S3">
-        <v>0.07210732876461208</v>
+        <v>0.002100343703331732</v>
       </c>
       <c r="T3">
-        <v>0.07210732876461208</v>
+        <v>0.00172666504177052</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>5.38253541575227</v>
+        <v>0.2122415</v>
       </c>
       <c r="H4">
-        <v>5.38253541575227</v>
+        <v>0.424483</v>
       </c>
       <c r="I4">
-        <v>0.898801258486994</v>
+        <v>0.02371249848986207</v>
       </c>
       <c r="J4">
-        <v>0.898801258486994</v>
+        <v>0.01595965328304344</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.93454778492886</v>
+        <v>2.952064666666667</v>
       </c>
       <c r="N4">
-        <v>2.93454778492886</v>
+        <v>8.856194</v>
       </c>
       <c r="O4">
-        <v>0.3758814926377909</v>
+        <v>0.3675450778083065</v>
       </c>
       <c r="P4">
-        <v>0.3758814926377909</v>
+        <v>0.448933694310833</v>
       </c>
       <c r="Q4">
-        <v>15.79530738159696</v>
+        <v>0.6265506329503333</v>
       </c>
       <c r="R4">
-        <v>15.79530738159696</v>
+        <v>3.759303797702</v>
       </c>
       <c r="S4">
-        <v>0.3378427586248162</v>
+        <v>0.008715412102485706</v>
       </c>
       <c r="T4">
-        <v>0.3378427586248162</v>
+        <v>0.007164826108276704</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +714,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.606035878432403</v>
+        <v>5.834219</v>
       </c>
       <c r="H5">
-        <v>0.606035878432403</v>
+        <v>17.502657</v>
       </c>
       <c r="I5">
-        <v>0.1011987415130061</v>
+        <v>0.6518230846795966</v>
       </c>
       <c r="J5">
-        <v>0.1011987415130061</v>
+        <v>0.6580624836613791</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.24622723051275</v>
+        <v>4.3683555</v>
       </c>
       <c r="N5">
-        <v>4.24622723051275</v>
+        <v>8.736711</v>
       </c>
       <c r="O5">
-        <v>0.5438923972141274</v>
+        <v>0.5438795363364365</v>
       </c>
       <c r="P5">
-        <v>0.5438923972141274</v>
+        <v>0.4428769226776301</v>
       </c>
       <c r="Q5">
-        <v>2.573366049667384</v>
+        <v>25.4859426568545</v>
       </c>
       <c r="R5">
-        <v>2.573366049667384</v>
+        <v>152.915655941127</v>
       </c>
       <c r="S5">
-        <v>0.05504122611656172</v>
+        <v>0.3545132370689248</v>
       </c>
       <c r="T5">
-        <v>0.05504122611656172</v>
+        <v>0.2914406876935498</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +776,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.606035878432403</v>
+        <v>5.834219</v>
       </c>
       <c r="H6">
-        <v>0.606035878432403</v>
+        <v>17.502657</v>
       </c>
       <c r="I6">
-        <v>0.1011987415130061</v>
+        <v>0.6518230846795966</v>
       </c>
       <c r="J6">
-        <v>0.1011987415130061</v>
+        <v>0.6580624836613791</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.626333986747722</v>
+        <v>0.7114236666666667</v>
       </c>
       <c r="N6">
-        <v>0.626333986747722</v>
+        <v>2.134271</v>
       </c>
       <c r="O6">
-        <v>0.08022611014808176</v>
+        <v>0.08857538585525702</v>
       </c>
       <c r="P6">
-        <v>0.08022611014808176</v>
+        <v>0.108189383011537</v>
       </c>
       <c r="Q6">
-        <v>0.3795808678507248</v>
+        <v>4.150601473116334</v>
       </c>
       <c r="R6">
-        <v>0.3795808678507248</v>
+        <v>37.355413258047</v>
       </c>
       <c r="S6">
-        <v>0.00811878138346968</v>
+        <v>0.05773548123485914</v>
       </c>
       <c r="T6">
-        <v>0.00811878138346968</v>
+        <v>0.07119537409036424</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +838,805 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>5.834219</v>
+      </c>
+      <c r="H7">
+        <v>17.502657</v>
+      </c>
+      <c r="I7">
+        <v>0.6518230846795966</v>
+      </c>
+      <c r="J7">
+        <v>0.6580624836613791</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2.952064666666667</v>
+      </c>
+      <c r="N7">
+        <v>8.856194</v>
+      </c>
+      <c r="O7">
+        <v>0.3675450778083065</v>
+      </c>
+      <c r="P7">
+        <v>0.448933694310833</v>
+      </c>
+      <c r="Q7">
+        <v>17.22299176749533</v>
+      </c>
+      <c r="R7">
+        <v>155.006925907458</v>
+      </c>
+      <c r="S7">
+        <v>0.2395743663758127</v>
+      </c>
+      <c r="T7">
+        <v>0.2954264218774651</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>1.972205333333333</v>
+      </c>
+      <c r="H8">
+        <v>5.916616</v>
+      </c>
+      <c r="I8">
+        <v>0.2203429394739699</v>
+      </c>
+      <c r="J8">
+        <v>0.2224521122610501</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>4.3683555</v>
+      </c>
+      <c r="N8">
+        <v>8.736711</v>
+      </c>
+      <c r="O8">
+        <v>0.5438795363364365</v>
+      </c>
+      <c r="P8">
+        <v>0.4428769226776301</v>
+      </c>
+      <c r="Q8">
+        <v>8.615294014996</v>
+      </c>
+      <c r="R8">
+        <v>51.691764089976</v>
+      </c>
+      <c r="S8">
+        <v>0.1198400157561103</v>
+      </c>
+      <c r="T8">
+        <v>0.09851890692131257</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>1.972205333333333</v>
+      </c>
+      <c r="H9">
+        <v>5.916616</v>
+      </c>
+      <c r="I9">
+        <v>0.2203429394739699</v>
+      </c>
+      <c r="J9">
+        <v>0.2224521122610501</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.7114236666666667</v>
+      </c>
+      <c r="N9">
+        <v>2.134271</v>
+      </c>
+      <c r="O9">
+        <v>0.08857538585525702</v>
+      </c>
+      <c r="P9">
+        <v>0.108189383011537</v>
+      </c>
+      <c r="Q9">
+        <v>1.403073549659556</v>
+      </c>
+      <c r="R9">
+        <v>12.627661946936</v>
+      </c>
+      <c r="S9">
+        <v>0.01951696088438843</v>
+      </c>
+      <c r="T9">
+        <v>0.02406695677513617</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>1.972205333333333</v>
+      </c>
+      <c r="H10">
+        <v>5.916616</v>
+      </c>
+      <c r="I10">
+        <v>0.2203429394739699</v>
+      </c>
+      <c r="J10">
+        <v>0.2224521122610501</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.952064666666667</v>
+      </c>
+      <c r="N10">
+        <v>8.856194</v>
+      </c>
+      <c r="O10">
+        <v>0.3675450778083065</v>
+      </c>
+      <c r="P10">
+        <v>0.448933694310833</v>
+      </c>
+      <c r="Q10">
+        <v>5.822077679944889</v>
+      </c>
+      <c r="R10">
+        <v>52.398699119504</v>
+      </c>
+      <c r="S10">
+        <v>0.08098596283347126</v>
+      </c>
+      <c r="T10">
+        <v>0.09986624856460137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.861672</v>
+      </c>
+      <c r="H11">
+        <v>2.585016</v>
+      </c>
+      <c r="I11">
+        <v>0.09626956084816791</v>
+      </c>
+      <c r="J11">
+        <v>0.09719107500446381</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>4.3683555</v>
+      </c>
+      <c r="N11">
+        <v>8.736711</v>
+      </c>
+      <c r="O11">
+        <v>0.5438795363364365</v>
+      </c>
+      <c r="P11">
+        <v>0.4428769226776301</v>
+      </c>
+      <c r="Q11">
+        <v>3.764089620396</v>
+      </c>
+      <c r="R11">
+        <v>22.584537722376</v>
+      </c>
+      <c r="S11">
+        <v>0.05235904411741393</v>
+      </c>
+      <c r="T11">
+        <v>0.04304368420970766</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.861672</v>
+      </c>
+      <c r="H12">
+        <v>2.585016</v>
+      </c>
+      <c r="I12">
+        <v>0.09626956084816791</v>
+      </c>
+      <c r="J12">
+        <v>0.09719107500446381</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.7114236666666667</v>
+      </c>
+      <c r="N12">
+        <v>2.134271</v>
+      </c>
+      <c r="O12">
+        <v>0.08857538585525702</v>
+      </c>
+      <c r="P12">
+        <v>0.108189383011537</v>
+      </c>
+      <c r="Q12">
+        <v>0.613013853704</v>
+      </c>
+      <c r="R12">
+        <v>5.517124683336</v>
+      </c>
+      <c r="S12">
+        <v>0.008527113498242618</v>
+      </c>
+      <c r="T12">
+        <v>0.01051504243896095</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.861672</v>
+      </c>
+      <c r="H13">
+        <v>2.585016</v>
+      </c>
+      <c r="I13">
+        <v>0.09626956084816791</v>
+      </c>
+      <c r="J13">
+        <v>0.09719107500446381</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.952064666666667</v>
+      </c>
+      <c r="N13">
+        <v>8.856194</v>
+      </c>
+      <c r="O13">
+        <v>0.3675450778083065</v>
+      </c>
+      <c r="P13">
+        <v>0.448933694310833</v>
+      </c>
+      <c r="Q13">
+        <v>2.543711465456</v>
+      </c>
+      <c r="R13">
+        <v>22.893403189104</v>
+      </c>
+      <c r="S13">
+        <v>0.03538340323251138</v>
+      </c>
+      <c r="T13">
+        <v>0.04363234835579519</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.027926</v>
+      </c>
+      <c r="H14">
+        <v>0.08377799999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.003120008258648229</v>
+      </c>
+      <c r="J14">
+        <v>0.003149873688102499</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>4.3683555</v>
+      </c>
+      <c r="N14">
+        <v>8.736711</v>
+      </c>
+      <c r="O14">
+        <v>0.5438795363364365</v>
+      </c>
+      <c r="P14">
+        <v>0.4428769226776301</v>
+      </c>
+      <c r="Q14">
+        <v>0.121990695693</v>
+      </c>
+      <c r="R14">
+        <v>0.7319441741579999</v>
+      </c>
+      <c r="S14">
+        <v>0.001696908645079451</v>
+      </c>
+      <c r="T14">
+        <v>0.001395006365810072</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.027926</v>
+      </c>
+      <c r="H15">
+        <v>0.08377799999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.003120008258648229</v>
+      </c>
+      <c r="J15">
+        <v>0.003149873688102499</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.7114236666666667</v>
+      </c>
+      <c r="N15">
+        <v>2.134271</v>
+      </c>
+      <c r="O15">
+        <v>0.08857538585525702</v>
+      </c>
+      <c r="P15">
+        <v>0.108189383011537</v>
+      </c>
+      <c r="Q15">
+        <v>0.01986721731533333</v>
+      </c>
+      <c r="R15">
+        <v>0.178804955838</v>
+      </c>
+      <c r="S15">
+        <v>0.0002763559353813555</v>
+      </c>
+      <c r="T15">
+        <v>0.0003407828908800838</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.027926</v>
+      </c>
+      <c r="H16">
+        <v>0.08377799999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.003120008258648229</v>
+      </c>
+      <c r="J16">
+        <v>0.003149873688102499</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.952064666666667</v>
+      </c>
+      <c r="N16">
+        <v>8.856194</v>
+      </c>
+      <c r="O16">
+        <v>0.3675450778083065</v>
+      </c>
+      <c r="P16">
+        <v>0.448933694310833</v>
+      </c>
+      <c r="Q16">
+        <v>0.08243935788133333</v>
+      </c>
+      <c r="R16">
+        <v>0.7419542209319999</v>
+      </c>
+      <c r="S16">
+        <v>0.001146743678187422</v>
+      </c>
+      <c r="T16">
+        <v>0.001414084431412343</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>25</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.606035878432403</v>
-      </c>
-      <c r="H7">
-        <v>0.606035878432403</v>
-      </c>
-      <c r="I7">
-        <v>0.1011987415130061</v>
-      </c>
-      <c r="J7">
-        <v>0.1011987415130061</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>2.93454778492886</v>
-      </c>
-      <c r="N7">
-        <v>2.93454778492886</v>
-      </c>
-      <c r="O7">
-        <v>0.3758814926377909</v>
-      </c>
-      <c r="P7">
-        <v>0.3758814926377909</v>
-      </c>
-      <c r="Q7">
-        <v>1.778441244641224</v>
-      </c>
-      <c r="R7">
-        <v>1.778441244641224</v>
-      </c>
-      <c r="S7">
-        <v>0.0380387340129747</v>
-      </c>
-      <c r="T7">
-        <v>0.0380387340129747</v>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.5</v>
+      </c>
+      <c r="G17">
+        <v>0.0423535</v>
+      </c>
+      <c r="H17">
+        <v>0.084707</v>
+      </c>
+      <c r="I17">
+        <v>0.004731908249754988</v>
+      </c>
+      <c r="J17">
+        <v>0.003184802101961116</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>4.3683555</v>
+      </c>
+      <c r="N17">
+        <v>8.736711</v>
+      </c>
+      <c r="O17">
+        <v>0.5438795363364365</v>
+      </c>
+      <c r="P17">
+        <v>0.4428769226776301</v>
+      </c>
+      <c r="Q17">
+        <v>0.18501514466925</v>
+      </c>
+      <c r="R17">
+        <v>0.740060578677</v>
+      </c>
+      <c r="S17">
+        <v>0.002573588064863302</v>
+      </c>
+      <c r="T17">
+        <v>0.001410475354253787</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.5</v>
+      </c>
+      <c r="G18">
+        <v>0.0423535</v>
+      </c>
+      <c r="H18">
+        <v>0.084707</v>
+      </c>
+      <c r="I18">
+        <v>0.004731908249754988</v>
+      </c>
+      <c r="J18">
+        <v>0.003184802101961116</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.7114236666666667</v>
+      </c>
+      <c r="N18">
+        <v>2.134271</v>
+      </c>
+      <c r="O18">
+        <v>0.08857538585525702</v>
+      </c>
+      <c r="P18">
+        <v>0.108189383011537</v>
+      </c>
+      <c r="Q18">
+        <v>0.03013128226616667</v>
+      </c>
+      <c r="R18">
+        <v>0.180787693597</v>
+      </c>
+      <c r="S18">
+        <v>0.000419130599053722</v>
+      </c>
+      <c r="T18">
+        <v>0.0003445617744250192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.5</v>
+      </c>
+      <c r="G19">
+        <v>0.0423535</v>
+      </c>
+      <c r="H19">
+        <v>0.084707</v>
+      </c>
+      <c r="I19">
+        <v>0.004731908249754988</v>
+      </c>
+      <c r="J19">
+        <v>0.003184802101961116</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>2.952064666666667</v>
+      </c>
+      <c r="N19">
+        <v>8.856194</v>
+      </c>
+      <c r="O19">
+        <v>0.3675450778083065</v>
+      </c>
+      <c r="P19">
+        <v>0.448933694310833</v>
+      </c>
+      <c r="Q19">
+        <v>0.1250302708596667</v>
+      </c>
+      <c r="R19">
+        <v>0.750181625158</v>
+      </c>
+      <c r="S19">
+        <v>0.001739189585837965</v>
+      </c>
+      <c r="T19">
+        <v>0.00142976497328231</v>
       </c>
     </row>
   </sheetData>
